--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Visited" sheetId="1" r:id="rId1"/>
+    <sheet name="Planned" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="167">
   <si>
     <t>Name</t>
   </si>
@@ -38,40 +39,547 @@
     <t>Image Links</t>
   </si>
   <si>
-    <t>Chichen Itza</t>
-  </si>
-  <si>
-    <t>[20.6843,-88.5678]</t>
-  </si>
-  <si>
-    <t>https://example.com/chichen-itza.jpg</t>
-  </si>
-  <si>
-    <t>Taj Mahal</t>
-  </si>
-  <si>
-    <t>27.1751,78.0421</t>
-  </si>
-  <si>
-    <t>https://example.com/taj-mahal.jpg</t>
-  </si>
-  <si>
-    <t>Eiffel Tower</t>
-  </si>
-  <si>
-    <t>48.8584,2.2945</t>
-  </si>
-  <si>
-    <t>https://example.com/eiffel-tower.jpg</t>
-  </si>
-  <si>
-    <t>Machu Picchu</t>
-  </si>
-  <si>
-    <t>-13.1631,-72.5450</t>
-  </si>
-  <si>
-    <t>https://example.com/machu-picchu.jpg</t>
+    <t>Jangtaesan Mountain, Daejeon</t>
+  </si>
+  <si>
+    <t>[36.219296, 127.3394828]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgZ0QPcWXw2y6fYK9zH1uDbg-c_8ljZmnyimbGhGEgC28LB2YhvvRo8zdzaCgwfhM6WXEqfF5RZXLQOluPVeuz3245wVEXRJB_5wq47-NPdyp5gszt14kC_OdGYZBcBtDOKzG2G39oFq9IrQzPgwZeFXr4-ACbCBp1y5ypSRUKKMo-BiWbyZi8rtUUPfn7q/s856/jangtaesan.png</t>
+  </si>
+  <si>
+    <t>Sky Road, Daejeon</t>
+  </si>
+  <si>
+    <t>[36.3271134, 127.4289631]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi7Cnm__rfxdFFhbuYl42ExWaS_lGzIqsmxNgDbWV1CwTOBtFEVGA0DZile4vugOQNSOS9lSa10cDh5u0AKHjcS9bCGsgpts7B4w6RFAaAmHUOEceMN2-1vDFO46DVvmZFFzRuQYKlQr4Zajf3dyj-5z50GIqxDMZhG_u1p8r9eGEcZoparOzD-DEcV9w2K/s2560/2.jpg</t>
+  </si>
+  <si>
+    <t>Filming Site, Suncheon</t>
+  </si>
+  <si>
+    <t>[34.9592592, 127.5324295]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg3uS8jNtUPWLAlS7MdMi2DS0ZW9KnYB__2LkndH74DCl7crvWOQrUoBpgbe-HMPOwnIDMj1xNASITK_G81g6o1cHzNXeDJkKrHX4fbPepMQAvmTx0kjKjVeSBcY7EsccwWy9-vmDKK8otxIcXqD7Xt4az-CGgs52QW-Sq0z3y300-KPzIISuRwt3Bq6D1C/s2560/photo_2024-10-30_00-16-51.jpg</t>
+  </si>
+  <si>
+    <t>Eiffel Tower, Paris</t>
+  </si>
+  <si>
+    <t>[48.8582599, 2.2945006358633115]</t>
+  </si>
+  <si>
+    <t>https://jasurlive.uz/img/pic2.png</t>
+  </si>
+  <si>
+    <t>Vertical Forest in Milano City</t>
+  </si>
+  <si>
+    <t>[45.45913914397633, 9.187069449510059]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjopGWMQwXjFcqhYZwCIg2p0yTcxJap8yEQeZUBww_BUIDih3s0CirCYIOssac2OykY7Guoo0RaOUec7l3oT-6SvQkE8-Dm3YjrwEzZ14JMxku3Hnx3zm-QyBUbbbDpxKgtIyqOzISoG6XvzC1_ph-4a9U2QrRoFazPTL-OeF7Jl_AYAmh663JuQGsQ3gPA/w381-h508/bosco.jpg</t>
+  </si>
+  <si>
+    <t>Galata Bridge</t>
+  </si>
+  <si>
+    <t>[41.01978632234401, 28.97251904010773]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjvCKEsz5vl8HZFdlUQiwQG6J_dbPXl22DdAhQ96W4-T1rAsREyUkXFAKvqTMNDtk4qR6KNqjY6fCOL7otlKgrbuiXXfCFNDL9WlInMLrUsOBExDtmJl4lOJORXpGWG3jb-jp5B2VI5oCRTMhhxcd-y1H9-J-xHap0xTPWu-mDYe-6p2WLkRTAD41q_DLLG/s320/20230927_152908.jpg</t>
+  </si>
+  <si>
+    <t>Emirates Stadium</t>
+  </si>
+  <si>
+    <t>[51.55504035, -0.1083996708672374]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhOF6_gTwDvNkjcK6lfoibyExMVYRh1IlunmBwV0_qADTVTNYAh6-my7wVowz_vCl31owtAE9Cz2omvjsFEnOHNIK66UTl2d3NmezuYmZ5ZnaLgAtS85bqAX5l4RUB2ZQXivCQ1sGXQ7NLrr0kpE9wTGmvUGtD_mEBtZJGLDGMY7DMyV7ADRPGO9o_k7LKq/s320/23.webp</t>
+  </si>
+  <si>
+    <t>Liverpool Lime Street</t>
+  </si>
+  <si>
+    <t>[53.4076085, -2.9775854]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjzfWXg9lQt2pj3wIbcyWnLnWPGU3qyxDVKw1Xgva7RI_wSc5RFMBCev-ODv5MkEsBztlv6M0u-OlgNl2Tw4TG_ZuqtDD4wbGRcz2ZUG2Uu7NgNBN8M77HLpAGjy2T2B9foJXdUS6tUpsr7L14egFpEDQLFNw-tc2-c9EI3VsaiERuW3Ej3LpI_vUEg46oY/s320/hachiko.png</t>
+  </si>
+  <si>
+    <t>Stamford Bridge Stadium</t>
+  </si>
+  <si>
+    <t>[51.481686499999995, -0.19103517666346065]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEghzbP3ppLImNNZQghA7R1TFTgPuPd0kIydru4EEDM7Tue8OOoi6KZhSzhQewXMyVAn6jXdXRqdrwxyKAi4EjCHdVzdIFOg6e9AXMopoSId2hyIBOh58kXeXc2sI7Vk_cu0lHJHmAtilhKYHOJgC79wvL4VSyLQPj_7b60VlOcz16LuRbp0vvfgnk4IdwSs/w437-h437/chel.jpg</t>
+  </si>
+  <si>
+    <t>Santiago Bernabeu Stadium</t>
+  </si>
+  <si>
+    <t>[40.4523667, -3.6907254]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj8FzWKu5WDrW9ZYBBautwn7HRiuCUK6k-hI8UyM0jCi6cwo3lVim1U1ZuxWJlpszcQfX2tMRZvb4pMuqRKZDB2EIFJlf0AiEBzhoIo4gbB8MbcxFVbjIiEZe_Cdu69ALn-AgSXIbkrBwTZDrikLFm2PBrnGLqhg3uxxFogdyRpbz0nnjdNW4glAhWTuzc_/w384-h384/pic3.png</t>
+  </si>
+  <si>
+    <t>Etihad Stadium 🩵</t>
+  </si>
+  <si>
+    <t>[53.48309105, -2.2002520023433307]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjiGGDH4O_MK5UeEVTn8viWKMtgf5PTLV_zbBxWRWsk7qzJmaTzmEYZ_D7wj_HBkWB0Ko_GchKRftbmj2nz5ySRPXgjb-ZfqemIOVRJ72tALF9iKp-T-YWKm6e_2C-WF2fScx7mlSyhE9nICV8QSQkwv8yw9uTAG_lEAi5YK1Ll9Gt3dK4WVMmiYZy2n-kY/s640/photo_2023-08-20_14-04-17.jpg</t>
+  </si>
+  <si>
+    <t>Sherlock`s House, Baker Street</t>
+  </si>
+  <si>
+    <t>[51.5237629, -0.1584743]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgz50hezAN9SuvkYi9hQjLg2F-am3FSQiZBvxvPus-P8rcl0wSCZzsDVxJYGh2ppoh_coQJDCNMYMbM7f8wwS6tlxQ1Pjm28ucYmcOTEqk-q4a8O6IkVKMDjncffzg_-lQqXzxB7-4vY0K3pKUoh0HlV9GxBr4pY0M3vLTTiiFr-nyWRWLDYxogafdGLiow/w277-h616/20221222_113534.jpg</t>
+  </si>
+  <si>
+    <t>El Principe Restaurante, Madrid</t>
+  </si>
+  <si>
+    <t>[40.4141634, -3.7000816]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEizSdkVDVxnrCMhs6bMX2so39R4-U_oEWCVd6D4SzKjNCEPGH4GD0hI14HRtaQK-Gnb48cY70aLXj49eeoGNSyOD9YG5jM7gepQW_E3Rmvrrxhbw9bbmQKe68PSzXlZbqOEVyJj3puBcBcJOdRYYfu4jbVVCHvv4OsaHrjNizzLbIu_Q2i-4tUlftk1CQrf/w497-h663/20230811_220557.jpg</t>
+  </si>
+  <si>
+    <t>Wanda Metropolitano Stadium</t>
+  </si>
+  <si>
+    <t>[40.43503136007304, -3.600726127624512]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjDsFcxaZ6TphewzLHXroTjHNJrp3ha3ks8Ky8kI5wg2c_yy1e9rpemwSfs1bcE2P5yvXtuhq1gB2ZNEPAkMQnBI_M8440xCs8wtAcZK0Es_Jkf7lfko1lI3g1TtjwUF_HFjtuwj4SYgAz7yFh4PBOoYR2rwFJ-GhzmOPUqnNyXIxJCGlhw1BgbsmwAZBvO/s320/photo_2023-08-24_17-47-13.jpg</t>
+  </si>
+  <si>
+    <t>University of Liverpool ♥️🎓</t>
+  </si>
+  <si>
+    <t>[53.40611160109354, -2.966246349630762]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgZ-gSKxKu9nN59x3CDw61foCAWR227Q_MrNAS2RRJ5WyjmGd4hQUaT6w8fyiM608ksQZ32r0l9WZtwE2h03T2Ep7hGMXzi8KIC_Gefk69gpBSEIOrqxwmBMREhsgEmO6IK0LawPDSHG_TQDyAmwK5ROxKtDkvG1NdWmZIF_mjqpuplzz5YFGElx-fDrDM7/s320/121.webp</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beautiful Chester </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>😻</t>
+    </r>
+  </si>
+  <si>
+    <t>[53.1908873, -2.8908955]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhXOrbZd07ixubpijDX8fo5Zum4rE3dSNpvVca4Rup-TmW3ggdrZOZFYRKBj6oFMQjb3WGhg5KSU4R_M1aLS7kxlbdNYTWH5cxcuY7ZboxK5aQBeLQF-25T1GdxMViGi7L1WtE9buHBELopevjg-k8eIFduZDybUrHhhN2qn6CATW9fz4kd9OmbFbpsjL_4/w440-h587/photo_2024-07-28_15-33-00.jpg</t>
+  </si>
+  <si>
+    <t>George Square, Glasgow</t>
+  </si>
+  <si>
+    <t>[55.86115665, -4.250218902542482]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg5yiegpbL8XJfIfj2nRGM3s-18Ysc4ipJyUG5SJpabX_h7hyphenhyphenF9InYU22iUplermNTwbbyKBIkqZQgdLS9HmGbcTsshoV4s5iwVQnxckb0klBUOBdkm_y-NqoQVN0bFX8oJZ_SInll5lt-bLxQ3ykgcVBj1iWubO5B2IOShqD1nF1vNDq6K1i7qjv3LS-rB/w435-h580/photo_2024-07-28_15-32-50.jpg</t>
+  </si>
+  <si>
+    <t>San Siro Stadium 🏟️</t>
+  </si>
+  <si>
+    <t>[45.478200349999995, 9.123963993342393]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgASsUAt2k9s1V8t78KAMkhpLM-bth5LCaFp5v7oFsUWkc4KnujDWWS7qc8UaqMSl6s5OJ39DxwaCHh97cafsbHJRqaNFGUcNwBZdgQoAjdsvhcDIbbWAtAxYpm7LXRKJhrio_q4yK2lOnM-ix4NMu2jUsdG7pFS_52QRS-6q3fS-IhUco8TRESglM-0TBw/w414-h449/photo_2024-07-28_15-32-38.jpg</t>
+  </si>
+  <si>
+    <t>Llandudno, Wales</t>
+  </si>
+  <si>
+    <t>[53.33151996613546, -3.8251411914825444]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj6V33tqCggT0H5B5zGrXk4OuugyLQNIF-ROKt9_DtDsn4WSIEvhD6zzVdS0p1rwx4cI857c9ZXv6HB9zzvZVA7Gf0rkXsnNKt288HXI-B1_B577lGsgaKwruKP0C0PjvEwFpeeaajOA5mq0jRgVQsSPKQhRryBMVgRdEisQjSGZVC69pfM8LL9WV6PxEol/w438-h584/photo_2024-07-28_15-32-47.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nyhavn, Copenhagen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>❤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>️</t>
+    </r>
+  </si>
+  <si>
+    <t>[55.948686699999996, -3.2004174629518065]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEioRIb20PjXB1oG13XS79VXJffXelyRTEp6snx4fRLH9ttDH9irzkqS14plHQbPmeoc3phItgPCT6CsoeP5WHRTyedOssBcyokGkgToorKrL6I1CMbaezGPg3vBzBw_ahNu_kee3DpGpOQqdv-2Ok8KGZ8IPIiKB-SQ4vYlQf6TeR_NzTuY84Mma33z067j/w601-h411/photo_2024-07-28_15-49-17.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sleep In Heaven </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>☃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>️</t>
+    </r>
+  </si>
+  <si>
+    <t>[39.6855379, 66.9289120568356]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg4_aWNSB-Qt1bI7on2JRSvKoBXIXAVVnTEtRfUAFmppKhXM0NGYwVRqvPuIoIUMQyX9KJIYGUyZhBmChTVaCHtkkOimkzh8dHy7he0ksmYljn6Cx4xCBD30zfh7_rQ8pO_CyzZqmaG5y0BAhHiLbmgjITUaFaVPbqlTFBg_2C1Kb3G3Sll3jfdXpAfjhZj/w519-h692/photo_2024-07-28_15-51-54.jpg</t>
+  </si>
+  <si>
+    <t>Copenhagen Airport</t>
+  </si>
+  <si>
+    <t>[55.62565886710453, 12.648696899414064]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhNc95qezJx9QQLvu54uo7g7Mht-rhMfQfzqPAcPALpeQ_lUWha33-PVJTOvUmFGxcUbxHGSXIDW2DET7I3oR6dX5rj4e8ThFcOMshrFkTg7n4HGpuGFYuEgYDKljJZWwRM1mmjze85WO5eSSpJ0Zi9seKapCghFYxKVKtzFlT9uIVAGbOJDq4WtodUjxEA/w458-h682/photo_2024-07-28_15-55-59.jpg</t>
+  </si>
+  <si>
+    <t>Tashkent State Transport University 🎓</t>
+  </si>
+  <si>
+    <t>[41.27729075, 69.2826682070976]</t>
+  </si>
+  <si>
+    <t>https://tstu.uz/assets/front/images/tstuphoto.jpg</t>
+  </si>
+  <si>
+    <t>Tashkent Railway Station</t>
+  </si>
+  <si>
+    <t>[41.2932886, 69.2877212]</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/45/Tashkent_Railway_Station.jpg</t>
+  </si>
+  <si>
+    <t>Uzbekistan Locomotive Depot</t>
+  </si>
+  <si>
+    <t>[41.17858174722078, 69.12394344806673]</t>
+  </si>
+  <si>
+    <t>https://tashtrans.uz/photo/railway/depo/DSC_0004.jpg</t>
+  </si>
+  <si>
+    <t>Bulungur ♥️📸</t>
+  </si>
+  <si>
+    <t>[39.76059340816414, 67.27417945861818]</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/5ko2xpNPV4U/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>SKD Airport Samarkand</t>
+  </si>
+  <si>
+    <t>[39.69887605, 66.99122805921263]</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2e/Samarkand_airport_%28SKD_-_UTSS%29_Entrance_from_airfield_31.05.2022.jpg/640px-Samarkand_airport_%28SKD_-_UTSS%29_Entrance_from_airfield_31.05.2022.jpg</t>
+  </si>
+  <si>
+    <t>TAS Tashkent International Airport</t>
+  </si>
+  <si>
+    <t>[41.2599624, 69.28511704456324]</t>
+  </si>
+  <si>
+    <t>https://people-travels.com/storage/images/sights/design/Tashkent_airport_1.webp</t>
+  </si>
+  <si>
+    <t>Daejeon, South Korea</t>
+  </si>
+  <si>
+    <t>[36.3352732, 127.45293497231432]</t>
+  </si>
+  <si>
+    <t>https://facts.net/wp-content/uploads/2023/07/50-facts-about-daejeon-taejon-1688365652.jpg</t>
+  </si>
+  <si>
+    <t>Almaty Airport</t>
+  </si>
+  <si>
+    <t>[43.343207050000004, 77.01258085779281]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgjcZqq-VLge0IYDxFOYHwHEZQVn68YJ3kWtwpw5T77P3zd_fvPb21nuo6TgiuEjYQUsKmnaCjwim-b2oX7fvVq-yW1cHgxDXRUXb7xhsRJ1uHBvBtevXLfbY8ox7CzT02psx50fsfTaoq-MuFT-EtyVvT7MWZtxyY8CHjbgfMph4khM1Dt8xCW1k8sGopg/w445-h782/photo_2024-09-13_16-16-42.jpg</t>
+  </si>
+  <si>
+    <t>Cafe in Gyeonggi-do | Kimchi time 😁🌶️🍜</t>
+  </si>
+  <si>
+    <t>[37.1994653, 126.8312632]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjG6n8cDzbBJlYgXy5JyCeHzK9RVf2KY4Xunm-KueVtDnZrr0mrlSo1LKihpK2ckRSgrqWN-vC6hY8bmcNdBe5zqpdvTduwNywBUphdPJNXGjhc6-hWDnYjnEgqaa4OvocBhbCBIfl1IsB1xGTLs4OquKdisMteME05Nu5DuCVq-4dj3DoV9oHeBF056ui_/w437-h544/photo_2024-09-13_16-15-48.jpg</t>
+  </si>
+  <si>
+    <t>Woosong University West Campus</t>
+  </si>
+  <si>
+    <t>[36.33772765, 127.44596583060166]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhmq7F6Btcp6ilAMW2Wz89XVrvKmXiXIPfBlplUie2olI49DyxUIaUIBY5UA3k0ckiAXTA2gA5SyeLWahNaV_Dx951_9iaE9PhPcRWoMU1qC4aY_njfyRZQz2YnNUxKaoBEjpbeClMzAPZ1H4nmMdx4PJEMXYbwGwF3KDYRIl6UaKraBigH6apkIm8oRqC1/w442-h439/photo_2024-09-16_13-43-34.jpg</t>
+  </si>
+  <si>
+    <t>Uam History Park</t>
+  </si>
+  <si>
+    <t>[36.356665642349476, 127.43720591068269]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/a/AVvXsEhgMOFWMnHGmU9s4mUIWmsU8hMS1KMbnjGfDRfzHesRPOn7m1SpUSaVvn2KZB8E15PZ77e0e810OMY6mo_fgdZANmio-9YotxlPI_J9NrSkrRygZKikcRo1emjnR7dL50W43ihgY-HMAM9Q7VeTTOUuRscyZhpLX3bkHaL4nxJ8JVIxmo7ATBJbZNW6IJl0=w387-h555</t>
+  </si>
+  <si>
+    <t>Solbridge, Woosong University</t>
+  </si>
+  <si>
+    <t>[36.338327750000005, 127.43243066372395]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/a/AVvXsEgfp-AToYuhE_mDHxcvhi1aKbcWHCbupZ8A5AgejcVi4HKKV_dzH0-kqnv8c31GaAHz-Dr3tJRhJlPht2XD0NcKxqhEVfOyvMLb5DHosI-Sw3bNhqnpBahJbF9EOwdFqRShMco90wJ525ferP_WTtsMEgWewOrWjzIR6g3yNHBWO-GIqYZE042qTs5VHLKA=w382-h488</t>
+  </si>
+  <si>
+    <t>Daejeon Expo Science Park</t>
+  </si>
+  <si>
+    <t>[36.37600915, 127.38768740014706]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/a/AVvXsEg6b2BV71DK3MlG8zyCs8E4v4ste-IQ4m4NbQwggsUYQAQ9TeEyy4kpspT_DqBa3H9J5s_yja7KrZYGT-X4VL79MVSs-BVzsDw-BodwTICzgMhTv-D9vtH3rcGrtwgPNdXygOme6JDBLnMNNsh1dgHyjFq2amCHb9RoXBan7Wnpp_cS4euLSz84iXr8ix4X=w318-h479</t>
+  </si>
+  <si>
+    <t>Daecheongho Lake</t>
+  </si>
+  <si>
+    <t>[36.41819665, 127.49738476559037]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjbHbKIBCP1qa8IfejkWYGE2__7qMxJekq07IbedqZkPgmnTWu1fWq-46OMstXV9bbFvJIj5fIfxeqvr46mi5eWby1bsOFPLy_Gn5eDyfbHKCmjYQeCDPo4uSNswnxrW7r2J9YG0_8dYDsSfNbZB8hKxVTgVK7gDO5yB8psBAELWhb_onAP_HrpCySa0nfz/w466-h466/dw.jpg</t>
+  </si>
+  <si>
+    <t>Yuseong Foot Bath</t>
+  </si>
+  <si>
+    <t>[36.3549475, 127.3460614]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/a/AVvXsEiJFEbtWAeRDeWKubd4tfHBk9DOQ3x92XWYvZ4U_iQtC30dKlY4cG94P-OULZ8EeQaVzdUYcl3yw_U9lix58tYIOqY7SCS88Fi0vewkC2UeVZWqhg7i9S4FcHIFVc6G9fUdaESYQZ2gZL3CqssO9myYmeb0lFDwYX5vuMk7VtARJ0Kl-J06GXIle5rQDXN0=w388-h388</t>
+  </si>
+  <si>
+    <t>Daejeon (Oncheon 1(il)-dong), South Korea</t>
+  </si>
+  <si>
+    <t>[36.35591446332886, 127.34676445038767]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEguqclW9vE_gcwR0rEEMKRpSsYC51FA6hkeKv0g0iQWkra2rtKSsHZLrqMvoQBi8gglifne6XJhO3Y5KxZbpS-fXOVcLdtg4OupmcETgFmJjpZwnUJE82QB6wflRWyPrvLPlvJTnzSX5xNyAlTVbjg_LWalPHqD-OXvnmt9sj7sikxFg70JU3P3wnWkmTZZ/w261-h440/20240927_182946.jpg</t>
+  </si>
+  <si>
+    <t>W7 Woosong University</t>
+  </si>
+  <si>
+    <t>[36.33705931024952, 127.44506729398547]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgxPjgh8tW56xU7hBA4Or6EhGhGTvUou_H1RqYat2x3pH0h-tajLow5vgbXH3F274U4rWjcQ3W-oS6Xlw0Nfc3lq2P8x3fEmgwdIolL-leqeQHyX2iZL_VDlk0le8l6shDp5ZpCXpq8EWWykpARwjUnMIkvwnlzIa-vRDmLqreR5Qeg9nOIwYtH8HnfA2mD/s1280/photo_2024-10-04_02-08-52.jpg</t>
+  </si>
+  <si>
+    <t>Daedong Hanuel Park</t>
+  </si>
+  <si>
+    <t>[36.33296217972606, 127.45091472323428]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhd-jFLheKE7iYUKNc2jtfZGY9A1mVr1BVI1575CkRUQtp2i11jt1RReSkD_tGL_-zI31B-_cLc8yriH52JrpS4HHdCNDrpnY7qFe-ToE-jbwDCDQnKTWXCyMGPQGSr_GZPlfzJs4uBSQLjNUDLmvH7SKINLW7iuajVFbtgozL1sqrarz1sOtyZWn3EvtoI/s1527/autumn.jpg</t>
+  </si>
+  <si>
+    <t>Starfield, Suwon</t>
+  </si>
+  <si>
+    <t>[37.2874448, 126.99157523573354]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiCABkUyVZ0_PpAuBXPAuvkyWRfR2bYF6beUpN0gJqVzFc0zwtMuGACl8DkuHk-REb39MrGmqGnQBVu7CoACwJF40ww-4ZJja44RzOxkuXaPlK-cDFLzFENGoP2TDe_nC7bDmL_vnIEmj4WiuCUb9piRXJX2u7FVupS1ep_szSjmEtMnfCxDCxwUUmRrJQa/s1426/camera-print%20(4).png</t>
+  </si>
+  <si>
+    <t>Ppuri Park, Daejeon</t>
+  </si>
+  <si>
+    <t>[36.284136700000005, 127.38785219063291]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiAB0Jd1Z6hBaCohTTbgrMFoY-rm-5wqGdvcqnn_ZFJw-c9FaHHL3unH0qIgpzWFBc3rFQbdxat8lvVLRbtki528lrXHp6ewFphaU1W75x_ta8NE8uhksuiyLsz2zxq23RIkGK9N2wkjPzxPnVozWiyCqP20ey4zVhCKWBf0TWN55Nc-OLHWH1094fBWGzo/s1782/camera-print%20(2).png</t>
+  </si>
+  <si>
+    <t>Tokyo, Japan</t>
+  </si>
+  <si>
+    <t>[35.6821936, 139.762221]</t>
+  </si>
+  <si>
+    <t>https://www.travelandleisure.com/thmb/VscfMXHNO6uBpaX2cuIW1q2ZtA8=/1500x0/filters:no_upscale():max_bytes(150000):strip_icc()/tokyo-japan-TOKYOTG0621-52012ff551dc46c4a87ac8e3151307a4.jpg</t>
+  </si>
+  <si>
+    <t>Phuket, Thailand</t>
+  </si>
+  <si>
+    <t>[7.879982497172296, 98.38960647583008]</t>
+  </si>
+  <si>
+    <t>https://miro.medium.com/v2/resize:fit:1000/0*fY1_mh4P45v1EYdX.jpg</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur, Malaysia</t>
+  </si>
+  <si>
+    <t>[3.1516964, 101.6942371]</t>
+  </si>
+  <si>
+    <t>https://media.timeout.com/images/105866262/750/562/image.jpg</t>
+  </si>
+  <si>
+    <t>Sydney, Australia</t>
+  </si>
+  <si>
+    <t>[-33.8698439, 151.2082848]</t>
+  </si>
+  <si>
+    <t>https://static1.squarespace.com/static/55ee34aae4b0bf70212ada4c/57d9829837c5819632bc630b/5e06e89e74877f00dbb21494/1577545446402/keith-zhu-qaNcz43MeY8-unsplash+%281%29.jpg?format=1500w</t>
+  </si>
+  <si>
+    <t>Mecca, Saudi Arabia</t>
+  </si>
+  <si>
+    <t>[21.420847, 39.826869]</t>
+  </si>
+  <si>
+    <t>https://cdn.britannica.com/20/153520-050-177A78E4/Kabah-hajj-pilgrims-Saudi-Arabia-Mecca.jpg</t>
+  </si>
+  <si>
+    <t>New York, Liberty Statue</t>
+  </si>
+  <si>
+    <t>[40.689253199999996, -74.04454817144321]</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/upload/f4/d8/7b/shutterstock-1397031029.jpg</t>
+  </si>
+  <si>
+    <t>Hawai 🌴🏖️🍹</t>
+  </si>
+  <si>
+    <t>[19.593801499999998, -155.42837009716908]</t>
+  </si>
+  <si>
+    <t>https://www.royalhawaiianmovers.com/wp-content/uploads/2021/11/111521-Best-Island-to-Live-on.png</t>
+  </si>
+  <si>
+    <t>Buenos Aires, Argentina</t>
+  </si>
+  <si>
+    <t>[-34.609023, -58.3812732]</t>
+  </si>
+  <si>
+    <t>https://i.natgeofe.com/n/a2e54fd2-f71b-420b-b9dd-8a35cc5c6f75/ArgentinaLead_2x1.jpg</t>
+  </si>
+  <si>
+    <t>[19.588489212685314, 204.58153972248294]</t>
+  </si>
+  <si>
+    <t>The Great Pyramid of Giza</t>
+  </si>
+  <si>
+    <t>[29.97916465, 31.13421326082681]</t>
+  </si>
+  <si>
+    <t>https://media.architecturaldigest.com/photos/58e2a407c0e88d1a6a20066b/16:9/w_1280,c_limit/Pyramid%20of%20Giza%201.jpg</t>
+  </si>
+  <si>
+    <t>Medina, Saudi Arabia</t>
+  </si>
+  <si>
+    <t>[24.471153, 39.6111216]</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/13/60/b1/42/medina.jpg</t>
+  </si>
+  <si>
+    <t>South Pole Point</t>
+  </si>
+  <si>
+    <t>[-66.28388122840676, 53.69731440027301]</t>
+  </si>
+  <si>
+    <t>https://waterproof-expeditions.com/wp-content/uploads/2024/02/South-Pole-Antarctica-5.jpg</t>
+  </si>
+  <si>
+    <t>Cape Town, South Africa</t>
+  </si>
+  <si>
+    <t>[-33.928992, 18.417396]</t>
+  </si>
+  <si>
+    <t>https://static.independent.co.uk/s3fs-public/thumbnails/image/2019/04/15/13/istock-671323338.jpg</t>
+  </si>
+  <si>
+    <t>[-84.71200665889168, 53.67669409524185]</t>
   </si>
 </sst>
 </file>
@@ -84,7 +592,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +609,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -108,13 +644,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -249,6 +778,12 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -569,158 +1104,167 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1067,17 +1611,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="25.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="57.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="52.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="62.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1091,58 +1635,657 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" ht="28.8" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" ht="28.8" spans="1:3">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" ht="28.8" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" ht="16" customHeight="1" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://example.com/chichen-itza.jpg"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://example.com/taj-mahal.jpg"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://example.com/eiffel-tower.jpg"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://example.com/machu-picchu.jpg"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="33.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="45.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Visited" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="190">
   <si>
     <t>Name</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Beautiful Chester </t>
     </r>
     <r>
@@ -222,6 +228,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Nyhavn, Copenhagen </t>
     </r>
     <r>
@@ -251,6 +263,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Sleep In Heaven </t>
     </r>
     <r>
@@ -387,13 +405,10 @@
     <t>https://blogger.googleusercontent.com/img/a/AVvXsEhgMOFWMnHGmU9s4mUIWmsU8hMS1KMbnjGfDRfzHesRPOn7m1SpUSaVvn2KZB8E15PZ77e0e810OMY6mo_fgdZANmio-9YotxlPI_J9NrSkrRygZKikcRo1emjnR7dL50W43ihgY-HMAM9Q7VeTTOUuRscyZhpLX3bkHaL4nxJ8JVIxmo7ATBJbZNW6IJl0=w387-h555</t>
   </si>
   <si>
-    <t>Solbridge, Woosong University</t>
-  </si>
-  <si>
-    <t>[36.338327750000005, 127.43243066372395]</t>
-  </si>
-  <si>
-    <t>https://blogger.googleusercontent.com/img/a/AVvXsEgfp-AToYuhE_mDHxcvhi1aKbcWHCbupZ8A5AgejcVi4HKKV_dzH0-kqnv8c31GaAHz-Dr3tJRhJlPht2XD0NcKxqhEVfOyvMLb5DHosI-Sw3bNhqnpBahJbF9EOwdFqRShMco90wJ525ferP_WTtsMEgWewOrWjzIR6g3yNHBWO-GIqYZE042qTs5VHLKA=w382-h488</t>
+    <t>[36.216473822700934, 127.3388620671485]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhinrkLAK-3hySIlZVzmqpnFwP8-S-XhwH4PXRr-SxKlLqktWoIjnAD9btJX-unLKqADPfZXM6JHiHlSClYrs0j_q9JTY2820srp4_7ekwwEtdcX1IfPT3AmGQGUZelLPcLTUffNI3WQUlY1a08y8MziynCylIXnKJ_IaF3QcZnGXzjQDQaF3Ttkc_SzRLc/s2560/IMG-20241123-WA0066.jpg</t>
   </si>
   <si>
     <t>Daejeon Expo Science Park</t>
@@ -468,6 +483,51 @@
     <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiAB0Jd1Z6hBaCohTTbgrMFoY-rm-5wqGdvcqnn_ZFJw-c9FaHHL3unH0qIgpzWFBc3rFQbdxat8lvVLRbtki528lrXHp6ewFphaU1W75x_ta8NE8uhksuiyLsz2zxq23RIkGK9N2wkjPzxPnVozWiyCqP20ey4zVhCKWBf0TWN55Nc-OLHWH1094fBWGzo/s1782/camera-print%20(2).png</t>
   </si>
   <si>
+    <t>Photo room, Seoul</t>
+  </si>
+  <si>
+    <t>[37.566247535072776, 126.97830677032472]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgwKV5P_EmIgiOl9gShfXTFIBzGhGpPUoR9bSaIwP5xx8_1snVNz1XSws2iKm0Qd39MBhuWjHvsB23OZnhnAu5OKjmHTklt8fKn7huhs-kyapBxMeNWt68JjaRT5MDKJVAcfKGMJhOsS1qKpAYvVB4091y449nNbboKvojkBd9SdntN8qjmeYp6ATNHxUR-/s4032/20241127_211141.heic</t>
+  </si>
+  <si>
+    <t>Network Conference, Seoul</t>
+  </si>
+  <si>
+    <t>[37.56576768506706, 126.97381051051924]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEizIX0QEXGd-d_Uto72dJB2ZD_b-fwXrTw21ndEWGYltvL6jlkObf9119d0Rh7eFXzjin_AG8TkkEL3WCZXLsYhJc8TO-Vh0jvM6jYhFEn5sZMvhN8ZuQt1y3t3b3175qcwu4mwC2KY2UMXcClZGsjen5Eyd58vd_JQz64bsS1yhanocYnt0s-pRru0_2Yl/s1185/-2147483648_-213078.jpg</t>
+  </si>
+  <si>
+    <t>Mountain Hiking, Daejeon</t>
+  </si>
+  <si>
+    <t>[36.34463189875109, 127.4643795966988]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjkgWvbKg-bygGI0ZKhT8x1u1hUymdnpSo2xjvSp-HXYpatrNAun6C7SQZyCAbu1vqg5MHR5xl0uf6UXnMX_OVpajRAZvp1m7qfLeM_ZMIMjA19zlOhEDrvFwCkbq1rxLk4YBKiMXtFlGFGDuBa-gKWTV7Xp-mPfxHOhUHn-3TY2ClmME31zngPuNuyadlL/w480-h640/IMG-20241116-WA0023.jpg</t>
+  </si>
+  <si>
+    <t>Solbridge Business School</t>
+  </si>
+  <si>
+    <t>[36.33868288463178, 127.43206679821016]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhrMx5UFOa6Zeeyb_WmphxDUtMZIlx-aUB-YtsOYi-kXx7_a9kZEgkY2C8cWUc0QSkmJ5r2rUTAfKmNxVB1OipSHix3cNzhUD9_jBmGiCU9j60mgx5iBcjgjCxr9BEaPiAMzWPqAYRxwSeeu6gcEn_cb6K4Pq-r6GOu3B4qVf4W4AmDPfVNIS4gBhbEde9D/s1920/IMG-20241211-WA0115.jpg</t>
+  </si>
+  <si>
+    <t>[37.56721000498679, 126.97777032852174]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjNqIUBlo6Ef0xwncdUliwk8HrAiQ6IFxiYQHvZ6f373u4UhhwDhZYGLEivzUF9KZPOhiYwEb5HcCKe2gq-TGI91UUFzNxcoW0GL2I70RDMy9hCwdJcLyAMXsTPUabYbReAfXM9T4ei2_q3SXVzBmgJaSR6D5xl4eK8e1fuS2YTNdbmXBV-dhnyTWdEq25k/s3600/IMG-20241127-WA0865.jpg</t>
+  </si>
+  <si>
+    <t>[37.55070315590309, 126.97586643378963]</t>
+  </si>
+  <si>
     <t>Tokyo, Japan</t>
   </si>
   <si>
@@ -580,6 +640,33 @@
   </si>
   <si>
     <t>[-84.71200665889168, 53.67669409524185]</t>
+  </si>
+  <si>
+    <t>Manila, The Philippines</t>
+  </si>
+  <si>
+    <t>[14.5904492, 120.9803621]</t>
+  </si>
+  <si>
+    <t>https://content.r9cdn.net/rimg/dimg/f6/a7/9b99082b-city-29645-166c0b3c28a.jpg?width=1200&amp;height=630&amp;xhint=2567&amp;yhint=1862&amp;crop=true</t>
+  </si>
+  <si>
+    <t>Dar es-Salam, Tanzania</t>
+  </si>
+  <si>
+    <t>[-6.817490533297529, 39.28498843686461]</t>
+  </si>
+  <si>
+    <t>https://gogiraffesafaris.com/wp-content/uploads/2023/06/dar-es-salaam_tanzania-scaled.jpg</t>
+  </si>
+  <si>
+    <t>Jakarta, Indonesia</t>
+  </si>
+  <si>
+    <t>[-6.175247, 106.8270488]</t>
+  </si>
+  <si>
+    <t>https://i0.wp.com/mytravelation.com/wp-content/uploads/2023/11/Jakarta.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1260,11 +1347,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1611,493 +1711,562 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="52.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="62.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="58" customWidth="1"/>
+    <col min="3" max="3" width="50.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:3">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="18" customHeight="1" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:3">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="15" customHeight="1" spans="1:3">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:3">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="14" customHeight="1" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="4" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="4" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="4" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="4" t="s">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="4" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="4" t="s">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="4" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="4" t="s">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="4" t="s">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="10" t="s">
         <v>128</v>
       </c>
+      <c r="B44" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C44" r:id="rId1" display="https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgwKV5P_EmIgiOl9gShfXTFIBzGhGpPUoR9bSaIwP5xx8_1snVNz1XSws2iKm0Qd39MBhuWjHvsB23OZnhnAu5OKjmHTklt8fKn7huhs-kyapBxMeNWt68JjaRT5MDKJVAcfKGMJhOsS1qKpAYvVB4091y449nNbboKvojkBd9SdntN8qjmeYp6ATNHxUR-/s4032/20241127_211141.heic" tooltip="https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgwKV5P_EmIgiOl9gShfXTFIBzGhGpPUoR9bSaIwP5xx8_1snVNz1XSws2iKm0Qd39MBhuWjHvsB23OZnhnAu5OKjmHTklt8fKn7huhs-kyapBxMeNWt68JjaRT5MDKJVAcfKGMJhOsS1qKpAYvVB4091y449nNbboKvojkBd9SdntN8qjmeYp6ATNHxUR-/s4032"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2106,10 +2275,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2132,156 +2301,189 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>162</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="195">
   <si>
     <t>Name</t>
   </si>
@@ -174,24 +174,7 @@
     <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgZ-gSKxKu9nN59x3CDw61foCAWR227Q_MrNAS2RRJ5WyjmGd4hQUaT6w8fyiM608ksQZ32r0l9WZtwE2h03T2Ep7hGMXzi8KIC_Gefk69gpBSEIOrqxwmBMREhsgEmO6IK0LawPDSHG_TQDyAmwK5ROxKtDkvG1NdWmZIF_mjqpuplzz5YFGElx-fDrDM7/s320/121.webp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Beautiful Chester </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>😻</t>
-    </r>
+    <t>Beautiful Chester 😻</t>
   </si>
   <si>
     <t>[53.1908873, -2.8908955]</t>
@@ -227,33 +210,7 @@
     <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj6V33tqCggT0H5B5zGrXk4OuugyLQNIF-ROKt9_DtDsn4WSIEvhD6zzVdS0p1rwx4cI857c9ZXv6HB9zzvZVA7Gf0rkXsnNKt288HXI-B1_B577lGsgaKwruKP0C0PjvEwFpeeaajOA5mq0jRgVQsSPKQhRryBMVgRdEisQjSGZVC69pfM8LL9WV6PxEol/w438-h584/photo_2024-07-28_15-32-47.jpg</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Nyhavn, Copenhagen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>❤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>️</t>
-    </r>
+    <t>Nyhavn, Copenhagen ❤️</t>
   </si>
   <si>
     <t>[55.948686699999996, -3.2004174629518065]</t>
@@ -262,33 +219,7 @@
     <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEioRIb20PjXB1oG13XS79VXJffXelyRTEp6snx4fRLH9ttDH9irzkqS14plHQbPmeoc3phItgPCT6CsoeP5WHRTyedOssBcyokGkgToorKrL6I1CMbaezGPg3vBzBw_ahNu_kee3DpGpOQqdv-2Ok8KGZ8IPIiKB-SQ4vYlQf6TeR_NzTuY84Mma33z067j/w601-h411/photo_2024-07-28_15-49-17.jpg</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Sleep In Heaven </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>☃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>️</t>
-    </r>
+    <t>Sleep In Heaven ☃️</t>
   </si>
   <si>
     <t>[39.6855379, 66.9289120568356]</t>
@@ -525,7 +456,22 @@
     <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjNqIUBlo6Ef0xwncdUliwk8HrAiQ6IFxiYQHvZ6f373u4UhhwDhZYGLEivzUF9KZPOhiYwEb5HcCKe2gq-TGI91UUFzNxcoW0GL2I70RDMy9hCwdJcLyAMXsTPUabYbReAfXM9T4ei2_q3SXVzBmgJaSR6D5xl4eK8e1fuS2YTNdbmXBV-dhnyTWdEq25k/s3600/IMG-20241127-WA0865.jpg</t>
   </si>
   <si>
-    <t>[37.55070315590309, 126.97586643378963]</t>
+    <t>Nyhavn, Copenhagen 😻♥️</t>
+  </si>
+  <si>
+    <t>[55.67973595, 12.590885510633967]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEioRIb20PjXB1oG13XS79VXJffXelyRTEp6snx4fRLH9ttDH9irzkqS14plHQbPmeoc3phItgPCT6CsoeP5WHRTyedOssBcyokGkgToorKrL6I1CMbaezGPg3vBzBw_ahNu_kee3DpGpOQqdv-2Ok8KGZ8IPIiKB-SQ4vYlQf6TeR_NzTuY84Mma33z067j/s1223/photo_2024-07-28_15-49-17.jpg</t>
+  </si>
+  <si>
+    <t>Namseon Park Skating Rink</t>
+  </si>
+  <si>
+    <t>[36.345313149999996, 127.39794720783014]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhuN3e-kz5XOhMQTzj0oD7XLMC_ZYgwzKgqg_v6Xd6yi9NVjEjE08htgDw5FskPa22SVjRaEKLzPSccHNOAXAuk8-WUQaEeDQd47V9TJRTuziHf1B8Au3FGXStG2aMfltWRVxqDMwOSwRvgvITMbC4pM_g1jOskFPGPk0StvUXBTQ9kYevgTLxsGR5ij-gb/s3968/20241221_153536.heic</t>
   </si>
   <si>
     <t>Tokyo, Japan</t>
@@ -679,7 +625,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,12 +812,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1191,153 +1131,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1346,24 +1286,35 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1711,15 +1662,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="52.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="52.4444444444444" style="4" customWidth="1"/>
     <col min="2" max="2" width="62.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="50.6666666666667" customWidth="1"/>
   </cols>
@@ -1728,539 +1679,550 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>130</v>
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2240,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2301,189 +2263,189 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" spans="1:3">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" customHeight="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>163</v>
+        <v>172</v>
+      </c>
+      <c r="C10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
+      </c>
+      <c r="C11" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
+      </c>
+      <c r="C12" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
+      </c>
+      <c r="C14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>176</v>
+        <v>185</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="201">
   <si>
     <t>Name</t>
   </si>
@@ -72,7 +72,7 @@
     <t>[48.8582599, 2.2945006358633115]</t>
   </si>
   <si>
-    <t>https://jasurlive.uz/img/pic2.png</t>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhJJugq1xto8LIoVVRV-qNknua86GHPjurfwyxS_rFbaQal1c00YmgJNP_f8JSHcJJLdub67sLzqpsqdjHDpv9adpo1xN_C83QfSIthM4_MWYq7p6cpHUFc7R8hi9CQCTFnHXAd5Is39dtI25uoLPmXbtvrvi2yVxJjBmN8uw3FA2e3cyxpBQoj-gat0Ej_/s3883/paris.png</t>
   </si>
   <si>
     <t>Vertical Forest in Milano City</t>
@@ -222,7 +222,7 @@
     <t>Sleep In Heaven ☃️</t>
   </si>
   <si>
-    <t>[39.6855379, 66.9289120568356]</t>
+    <t>[55.6867883, 12.5505333]</t>
   </si>
   <si>
     <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg4_aWNSB-Qt1bI7on2JRSvKoBXIXAVVnTEtRfUAFmppKhXM0NGYwVRqvPuIoIUMQyX9KJIYGUyZhBmChTVaCHtkkOimkzh8dHy7he0ksmYljn6Cx4xCBD30zfh7_rQ8pO_CyzZqmaG5y0BAhHiLbmgjITUaFaVPbqlTFBg_2C1Kb3G3Sll3jfdXpAfjhZj/w519-h692/photo_2024-07-28_15-51-54.jpg</t>
@@ -472,6 +472,24 @@
   </si>
   <si>
     <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhuN3e-kz5XOhMQTzj0oD7XLMC_ZYgwzKgqg_v6Xd6yi9NVjEjE08htgDw5FskPa22SVjRaEKLzPSccHNOAXAuk8-WUQaEeDQd47V9TJRTuziHf1B8Au3FGXStG2aMfltWRVxqDMwOSwRvgvITMbC4pM_g1jOskFPGPk0StvUXBTQ9kYevgTLxsGR5ij-gb/s3968/20241221_153536.heic</t>
+  </si>
+  <si>
+    <t>Woosong University Campus</t>
+  </si>
+  <si>
+    <t>[36.338142832667906, 127.44648635387422]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiNY01IKL79l-hEWLEWly_8YQrxIi6vaFmQNkSr0v0tjcEurmUSIGVvTVAeZWZhGIsy4CYLRo-IiqYSZQwuppRNswNSOYXH6NFezOR_39vo5NT2UiHYSQrc1hOeurDB9lood0JjlZAV71VZHjsj849zFhvpRI8S5UIoe6z5yR-yziivM313O-03gkIjfNO3/s1795/snowangel.jpg</t>
+  </si>
+  <si>
+    <t>Mokpo Bridge</t>
+  </si>
+  <si>
+    <t>[34.77023408524546, 126.35371825830697]</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgEQ8x-tG1AnoNA6Io25h7gyScsqBSAd9YeF2XvNzSgGbLAr8bbVQGIT8ATnq6PRnCr4hanaqRtvd3GKckbndZBKEYsvovHZKrq8p9C_z4zoYictIIWMjAMngz7__-5gGYXi4KRugmxSPAMw4oRXgfWOVW0zBrz91xHWtBanjIu32xFHszJXLbuqYjlfXi8/s4032/20250127_140838.heic</t>
   </si>
   <si>
     <t>Tokyo, Japan</t>
@@ -625,7 +643,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,14 +674,6 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1146,138 +1156,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1287,34 +1297,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1662,544 +1663,544 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="52.4444444444444" style="4" customWidth="1"/>
     <col min="2" max="2" width="62.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="50.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="255" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2223,6 +2224,28 @@
       </c>
       <c r="C50" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2263,189 +2286,189 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" ht="28.8" customHeight="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
